--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.0178789217252</v>
+        <v>133.9646796666667</v>
       </c>
       <c r="H2">
-        <v>16.0178789217252</v>
+        <v>401.894039</v>
       </c>
       <c r="I2">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517746</v>
       </c>
       <c r="J2">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517745</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>1690.153908842172</v>
+        <v>15072.8205174901</v>
       </c>
       <c r="R2">
-        <v>1690.153908842172</v>
+        <v>135655.3846574108</v>
       </c>
       <c r="S2">
-        <v>0.01421464309238735</v>
+        <v>0.09154923648069883</v>
       </c>
       <c r="T2">
-        <v>0.01421464309238735</v>
+        <v>0.09154923648069879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.0178789217252</v>
+        <v>133.9646796666667</v>
       </c>
       <c r="H3">
-        <v>16.0178789217252</v>
+        <v>401.894039</v>
       </c>
       <c r="I3">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517746</v>
       </c>
       <c r="J3">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>1700.706222926903</v>
+        <v>14242.38338162273</v>
       </c>
       <c r="R3">
-        <v>1700.706222926903</v>
+        <v>128181.4504346045</v>
       </c>
       <c r="S3">
-        <v>0.0143033908553742</v>
+        <v>0.08650533075345568</v>
       </c>
       <c r="T3">
-        <v>0.0143033908553742</v>
+        <v>0.08650533075345566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.0178789217252</v>
+        <v>133.9646796666667</v>
       </c>
       <c r="H4">
-        <v>16.0178789217252</v>
+        <v>401.894039</v>
       </c>
       <c r="I4">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517746</v>
       </c>
       <c r="J4">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517745</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>1984.045560491592</v>
+        <v>16704.27766383641</v>
       </c>
       <c r="R4">
-        <v>1984.045560491592</v>
+        <v>150338.4989745277</v>
       </c>
       <c r="S4">
-        <v>0.0166863499080646</v>
+        <v>0.1014583743176201</v>
       </c>
       <c r="T4">
-        <v>0.0166863499080646</v>
+        <v>0.1014583743176201</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>276.410742670589</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H5">
-        <v>276.410742670589</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I5">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="J5">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>29165.95258670782</v>
+        <v>31102.62665348884</v>
       </c>
       <c r="R5">
-        <v>29165.95258670782</v>
+        <v>279923.6398813996</v>
       </c>
       <c r="S5">
-        <v>0.2452934045240595</v>
+        <v>0.1889110083522234</v>
       </c>
       <c r="T5">
-        <v>0.2452934045240595</v>
+        <v>0.1889110083522234</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>276.410742670589</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H6">
-        <v>276.410742670589</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I6">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="J6">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>29348.04741882057</v>
+        <v>29389.02725342272</v>
       </c>
       <c r="R6">
-        <v>29348.04741882057</v>
+        <v>264501.2452808045</v>
       </c>
       <c r="S6">
-        <v>0.2468248704064915</v>
+        <v>0.1785029552258825</v>
       </c>
       <c r="T6">
-        <v>0.2468248704064915</v>
+        <v>0.1785029552258826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>276.410742670589</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H7">
-        <v>276.410742670589</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I7">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="J7">
-        <v>0.7800644126862661</v>
+        <v>0.5767723868147629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>34237.46112376654</v>
+        <v>34469.1234856574</v>
       </c>
       <c r="R7">
-        <v>34237.46112376654</v>
+        <v>310222.1113709167</v>
       </c>
       <c r="S7">
-        <v>0.2879461377557151</v>
+        <v>0.209358423236657</v>
       </c>
       <c r="T7">
-        <v>0.2879461377557151</v>
+        <v>0.209358423236657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.9148636062069</v>
+        <v>68.87942233333334</v>
       </c>
       <c r="H8">
-        <v>61.9148636062069</v>
+        <v>206.638267</v>
       </c>
       <c r="I8">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="J8">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>6533.052799988934</v>
+        <v>7749.857445723888</v>
       </c>
       <c r="R8">
-        <v>6533.052799988934</v>
+        <v>69748.71701151499</v>
       </c>
       <c r="S8">
-        <v>0.05494470850833996</v>
+        <v>0.04707105290393417</v>
       </c>
       <c r="T8">
-        <v>0.05494470850833996</v>
+        <v>0.04707105290393416</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.9148636062069</v>
+        <v>68.87942233333334</v>
       </c>
       <c r="H9">
-        <v>61.9148636062069</v>
+        <v>206.638267</v>
       </c>
       <c r="I9">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="J9">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>6573.84128955604</v>
+        <v>7322.879003756808</v>
       </c>
       <c r="R9">
-        <v>6573.84128955604</v>
+        <v>65905.91103381127</v>
       </c>
       <c r="S9">
-        <v>0.05528775053453695</v>
+        <v>0.04447767296482813</v>
       </c>
       <c r="T9">
-        <v>0.05528775053453695</v>
+        <v>0.04447767296482813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.9148636062069</v>
+        <v>68.87942233333334</v>
       </c>
       <c r="H10">
-        <v>61.9148636062069</v>
+        <v>206.638267</v>
       </c>
       <c r="I10">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="J10">
-        <v>0.1747312034579077</v>
+        <v>0.1437146716334625</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>7669.04974538955</v>
+        <v>8588.689189147104</v>
       </c>
       <c r="R10">
-        <v>7669.04974538955</v>
+        <v>77298.20270232394</v>
       </c>
       <c r="S10">
-        <v>0.0644987444150308</v>
+        <v>0.05216594576470024</v>
       </c>
       <c r="T10">
-        <v>0.0644987444150308</v>
+        <v>0.05216594576470024</v>
       </c>
     </row>
   </sheetData>
